--- a/Recursos/lista.xlsx
+++ b/Recursos/lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthoni\Desktop\Mail\Recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9513B753-D666-4989-B910-F2D79FD278A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7055638B-6699-4842-82B0-FCAD8C0C6F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,10 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>jhonatan</t>
+    <t>Anthoni</t>
   </si>
   <si>
-    <t>jonathanmoq@gmail.com</t>
+    <t>tonirodriguez110@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
